--- a/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
+++ b/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,22 +564,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gender (P=1.000) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+          <t>Interested in News (P=1.000)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Don't know</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(48.8%) 394</t>
+          <t>(7.3%) 59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(48.8%) 394</t>
+          <t>(7.3%) 59</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Non-binary</t>
+          <t>Hardly at all</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(2.1%) 16</t>
+          <t>(9.5%) 76</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(2.1%) 16</t>
+          <t>(9.5%) 76</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Most of the time</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(34.8%) 281</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(34.8%) 281</t>
         </is>
       </c>
     </row>
@@ -623,17 +623,17 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Only now and then</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(13.9%) 112</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(13.9%) 112</t>
         </is>
       </c>
     </row>
@@ -641,15 +641,815 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interested in News (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interested in News (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Interested in News (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Interested in News (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Interested in News (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gender (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Woman</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>(47.8%) 386</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Gender (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>(47.8%) 386</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>(47.8%) 386</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Gender (P=1.000)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>(47.8%) 386</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
         </is>

--- a/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
+++ b/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,47 +557,47 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Gender (P=1.000)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Man</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>(48.8%) 394</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>(48.8%) 394</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>(2.1%) 16</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>(2.1%) 16</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Non-binary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(2.1%) 16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(2.1%) 16</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -641,17 +641,53 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Woman</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
         </is>
       </c>
     </row>

--- a/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
+++ b/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
@@ -464,22 +464,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Interested in News (P=1.000)</t>
+          <t>Gender (P=1.000)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(7.3%) 59</t>
+          <t>(48.8%) 394</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(7.3%) 59</t>
+          <t>(48.8%) 394</t>
         </is>
       </c>
     </row>
@@ -487,17 +487,17 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hardly at all</t>
+          <t>Non-binary</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(9.5%) 76</t>
+          <t>(2.1%) 16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(9.5%) 76</t>
+          <t>(2.1%) 16</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Most of the time</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(34.8%) 281</t>
+          <t>(0.6%) 5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(34.8%) 281</t>
+          <t>(0.6%) 5</t>
         </is>
       </c>
     </row>
@@ -523,17 +523,17 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Only now and then</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(13.9%) 112</t>
+          <t>(0.6%) 5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(13.9%) 112</t>
+          <t>(0.6%) 5</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Some of the time</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(34.5%) 279</t>
+          <t>(47.8%) 386</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(34.5%) 279</t>
+          <t>(47.8%) 386</t>
         </is>
       </c>
     </row>
@@ -582,22 +582,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gender (P=1.000)</t>
+          <t>Interested in News (P=1.000)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Don't know</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(48.8%) 394</t>
+          <t>(7.3%) 59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(48.8%) 394</t>
+          <t>(7.3%) 59</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Non-binary</t>
+          <t>Hardly at all</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(2.1%) 16</t>
+          <t>(9.5%) 76</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(2.1%) 16</t>
+          <t>(9.5%) 76</t>
         </is>
       </c>
     </row>
@@ -623,17 +623,17 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Most of the time</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(34.8%) 281</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(34.8%) 281</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Only now and then</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(13.9%) 112</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(13.9%) 112</t>
         </is>
       </c>
     </row>
@@ -659,17 +659,17 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Some of the time</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(47.8%) 386</t>
+          <t>(34.5%) 279</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(47.8%) 386</t>
+          <t>(34.5%) 279</t>
         </is>
       </c>
     </row>

--- a/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
+++ b/Tables - Nominal - Control at T1 v. T2 - weight_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,258 +434,272 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Control at T1 (n=745)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Control at T2 (n=745)</t>
+          <t>Control at T1 (n = 745)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Control at T2 (n = 745)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gender (P=1.000)</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Gender (P = 1.000)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Man</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>(48.8%) 394</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>(48.8%) 394</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Non-binary</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>(2.1%) 16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>(2.1%) 16</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>(0.6%) 5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>(0.6%) 5</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Skipped</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>(0.6%) 5</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>(0.6%) 5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Woman</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>(47.8%) 386</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>DK/NA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>(0.0%) 0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>(0.0%) 0</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Interested in News (P=1.000)</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Interested in News (P = 1.000)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Don't know</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>(7.3%) 59</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>(7.3%) 59</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Hardly at all</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>(9.5%) 76</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>(9.5%) 76</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Most of the time</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>(34.8%) 281</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>(34.8%) 281</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Only now and then</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>(13.9%) 112</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>(13.9%) 112</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Some of the time</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>(34.5%) 279</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>(34.5%) 279</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
         <is>
           <t>DK/NA</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>(0.0%) 0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>(0.0%) 0</t>
         </is>
